--- a/信用卡贷后系统/二期需求/7押品报表/押品报表(2)-工作量评估.xlsx
+++ b/信用卡贷后系统/二期需求/7押品报表/押品报表(2)-工作量评估.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8280"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,10 +288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="31">
@@ -343,7 +343,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,15 +354,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,42 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -421,33 +444,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,9 +475,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,9 +491,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -536,19 +536,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,49 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,115 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,6 +835,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -858,30 +888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -899,11 +905,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,17 +921,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,151 +936,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1571,16 +1571,16 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.1681415929204" customWidth="1"/>
-    <col min="2" max="2" width="33.6283185840708" customWidth="1"/>
-    <col min="3" max="3" width="13.6637168141593" customWidth="1"/>
-    <col min="4" max="4" width="11.3362831858407" customWidth="1"/>
+    <col min="1" max="1" width="14.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="13.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="20" style="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1741,7 +1741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="25.5" spans="1:5">
+    <row r="15" ht="24" spans="1:5">
       <c r="A15" s="26">
         <v>1</v>
       </c>
@@ -1751,10 +1751,12 @@
       <c r="C15" s="9">
         <v>3.2</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <v>2.5</v>
+      </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" ht="25.5" spans="1:5">
+    <row r="16" ht="24" spans="1:5">
       <c r="A16" s="26">
         <v>2</v>
       </c>
@@ -1764,10 +1766,12 @@
       <c r="C16" s="9">
         <v>0.4</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9">
+        <v>0.4</v>
+      </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" ht="25.5" spans="1:5">
+    <row r="17" ht="24" spans="1:5">
       <c r="A17" s="26">
         <v>3</v>
       </c>
@@ -1777,10 +1781,12 @@
       <c r="C17" s="9">
         <v>5.9</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9">
+        <v>5</v>
+      </c>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" ht="25.5" spans="1:5">
+    <row r="18" ht="24" spans="1:5">
       <c r="A18" s="26">
         <v>4</v>
       </c>
@@ -1790,10 +1796,12 @@
       <c r="C18" s="9">
         <v>5</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="9">
+        <v>5</v>
+      </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" ht="25.5" spans="1:5">
+    <row r="19" ht="24" spans="1:5">
       <c r="A19" s="26">
         <v>5</v>
       </c>
@@ -1803,10 +1811,12 @@
       <c r="C19" s="9">
         <v>3</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" ht="25.5" spans="1:5">
+    <row r="20" ht="24" spans="1:5">
       <c r="A20" s="26">
         <v>6</v>
       </c>
@@ -1816,10 +1826,12 @@
       <c r="C20" s="9">
         <v>8.3</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="9">
+        <v>7</v>
+      </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" ht="25.5" spans="1:5">
+    <row r="21" ht="24" spans="1:5">
       <c r="A21" s="26">
         <v>7</v>
       </c>
@@ -1829,10 +1841,12 @@
       <c r="C21" s="9">
         <v>3.2</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="9">
+        <v>3.2</v>
+      </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" ht="25.5" spans="1:5">
+    <row r="22" ht="24" spans="1:5">
       <c r="A22" s="26">
         <v>8</v>
       </c>
@@ -1842,10 +1856,12 @@
       <c r="C22" s="9">
         <v>0.4</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="9">
+        <v>0.4</v>
+      </c>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" ht="25.5" spans="1:5">
+    <row r="23" ht="24" spans="1:5">
       <c r="A23" s="26">
         <v>9</v>
       </c>
@@ -1855,10 +1871,12 @@
       <c r="C23" s="9">
         <v>5.9</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="9">
+        <v>5</v>
+      </c>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" ht="25.5" spans="1:5">
+    <row r="24" ht="24" spans="1:5">
       <c r="A24" s="26">
         <v>10</v>
       </c>
@@ -1868,10 +1886,12 @@
       <c r="C24" s="9">
         <v>5</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="9">
+        <v>5</v>
+      </c>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" ht="25.5" spans="1:5">
+    <row r="25" ht="24" spans="1:5">
       <c r="A25" s="26">
         <v>11</v>
       </c>
@@ -1881,10 +1901,12 @@
       <c r="C25" s="9">
         <v>3</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" ht="25.5" spans="1:5">
+    <row r="26" ht="24" spans="1:5">
       <c r="A26" s="26">
         <v>12</v>
       </c>
@@ -1894,7 +1916,9 @@
       <c r="C26" s="9">
         <v>8.3</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="9">
+        <v>7</v>
+      </c>
       <c r="E26" s="12"/>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:5">
@@ -1907,8 +1931,8 @@
         <v>2.34545454545455</v>
       </c>
       <c r="D27" s="20">
-        <f>SUM(D15:D20)/22</f>
-        <v>0</v>
+        <f>SUM(D15:D26)/22</f>
+        <v>2.11363636363636</v>
       </c>
       <c r="E27" s="42"/>
     </row>
@@ -1958,15 +1982,15 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="33.5044247787611" customWidth="1"/>
-    <col min="4" max="4" width="61.070796460177" customWidth="1"/>
-    <col min="13" max="13" width="10.1681415929204" customWidth="1"/>
-    <col min="14" max="14" width="10.5044247787611" customWidth="1"/>
+    <col min="3" max="3" width="33.5083333333333" customWidth="1"/>
+    <col min="4" max="4" width="61.0666666666667" customWidth="1"/>
+    <col min="13" max="13" width="10.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="10.5083333333333" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2016,7 +2040,7 @@
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
     </row>
-    <row r="2" ht="25.5" spans="1:25">
+    <row r="2" ht="24" spans="1:25">
       <c r="A2" s="2"/>
       <c r="B2" s="6"/>
       <c r="C2" s="2"/>
@@ -2125,11 +2149,11 @@
         <v>0</v>
       </c>
       <c r="S3" s="9">
-        <f>SUM(E3:R3)</f>
+        <f t="shared" ref="S3:S8" si="0">SUM(E3:R3)</f>
         <v>3.2</v>
       </c>
     </row>
-    <row r="4" ht="25.5" spans="1:19">
+    <row r="4" ht="24" spans="1:19">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -2183,11 +2207,11 @@
         <v>0</v>
       </c>
       <c r="S4" s="9">
-        <f>SUM(E4:R4)</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:19">
+    <row r="5" ht="24" spans="1:19">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -2241,11 +2265,11 @@
         <v>0.5</v>
       </c>
       <c r="S5" s="9">
-        <f>SUM(E5:R5)</f>
+        <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
     </row>
-    <row r="6" ht="25.5" spans="1:19">
+    <row r="6" ht="24" spans="1:19">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -2299,11 +2323,11 @@
         <v>0.5</v>
       </c>
       <c r="S6" s="9">
-        <f>SUM(E6:R6)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="25.5" spans="1:19">
+    <row r="7" ht="24" spans="1:19">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -2357,11 +2381,11 @@
         <v>0.6</v>
       </c>
       <c r="S7" s="9">
-        <f>SUM(E7:R7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="31.5" spans="1:19">
+    <row r="8" ht="24" spans="1:19">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -2415,11 +2439,11 @@
         <v>3.5</v>
       </c>
       <c r="S8" s="9">
-        <f>SUM(E8:R8)</f>
+        <f t="shared" si="0"/>
         <v>8.3</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="25.5" spans="1:19">
+    <row r="9" customFormat="1" ht="24" spans="1:19">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2473,11 +2497,11 @@
         <v>0</v>
       </c>
       <c r="S9" s="9">
-        <f t="shared" ref="S9:S32" si="0">SUM(E9:R9)</f>
+        <f t="shared" ref="S9:S32" si="1">SUM(E9:R9)</f>
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="25.5" spans="1:19">
+    <row r="10" customFormat="1" ht="24" spans="1:19">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -2531,11 +2555,11 @@
         <v>0</v>
       </c>
       <c r="S10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="25.5" spans="1:19">
+    <row r="11" customFormat="1" ht="24" spans="1:19">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -2589,11 +2613,11 @@
         <v>0.5</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="25.5" spans="1:19">
+    <row r="12" customFormat="1" ht="24" spans="1:19">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -2647,11 +2671,11 @@
         <v>0.5</v>
       </c>
       <c r="S12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="25.5" spans="1:19">
+    <row r="13" customFormat="1" ht="24" spans="1:19">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -2705,11 +2729,11 @@
         <v>0.6</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="31.5" spans="1:19">
+    <row r="14" customFormat="1" ht="24" spans="1:19">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -2763,7 +2787,7 @@
         <v>3.5</v>
       </c>
       <c r="S14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3</v>
       </c>
     </row>
@@ -2783,19 +2807,19 @@
         <v>1.2</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" ref="E15:K15" si="1">SUM(G3:G8)</f>
+        <f t="shared" ref="E15:K15" si="2">SUM(G3:G8)</f>
         <v>0</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="13">
